--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
   <si>
     <t>土地坐落</t>
   </si>
@@ -206,6 +206,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>長鴻營造(股)•(上櫃）</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
   </si>
   <si>
     <t>單位數</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
   </si>
   <si>
     <t>所</t>
@@ -1336,13 +1348,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1361,13 +1373,22 @@
       <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -1384,13 +1405,22 @@
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -1407,13 +1437,22 @@
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1430,13 +1469,22 @@
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1453,13 +1501,22 @@
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1476,28 +1533,46 @@
       <c r="G6" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -1515,22 +1590,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1538,14 +1613,14 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1555,22 +1630,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1578,7 +1653,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1610,19 +1685,19 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1630,22 +1705,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1653,13 +1728,13 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -1668,7 +1743,7 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1676,22 +1751,22 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1709,22 +1784,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1735,19 +1810,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1758,19 +1833,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1781,19 +1856,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1804,19 +1879,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1827,19 +1902,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
   <si>
     <t>土地坐落</t>
   </si>
@@ -206,6 +206,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -243,6 +246,9 @@
   </si>
   <si>
     <t>單位數</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-22</t>
@@ -1348,13 +1354,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1382,13 +1388,16 @@
       <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -1406,21 +1415,24 @@
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -1438,21 +1450,24 @@
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1470,21 +1485,24 @@
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1502,21 +1520,24 @@
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1534,44 +1555,50 @@
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>833</v>
       </c>
     </row>
@@ -1590,22 +1617,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1613,14 +1640,14 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1630,22 +1657,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1653,7 +1680,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1685,19 +1712,19 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1705,22 +1732,22 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1728,13 +1755,13 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -1743,7 +1770,7 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1751,22 +1778,22 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1784,22 +1811,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1810,19 +1837,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1833,19 +1860,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1856,19 +1883,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1879,19 +1906,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1902,19 +1929,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
   <si>
     <t>土地坐落</t>
   </si>
@@ -209,6 +209,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -218,7 +221,13 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>長鴻營造(股)•(上櫃）</t>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>長鴻營造(股)(上櫃）</t>
   </si>
   <si>
     <t>景岳生物科技(股)(上市）</t>
@@ -233,34 +242,34 @@
     <t>光惠生物科技(股）</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpa3b61</t>
+  </si>
+  <si>
     <t>名</t>
   </si>
   <si>
     <t>稱</t>
   </si>
   <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
+    <t>所</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>人</t>
   </si>
   <si>
     <t>單位數</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
   </si>
   <si>
     <t>(九）珠寶、古董、字晝及羊</t>
@@ -1354,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1391,13 +1400,22 @@
       <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -1415,24 +1433,33 @@
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -1450,24 +1477,33 @@
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1485,24 +1521,33 @@
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>833</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1520,24 +1565,33 @@
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2">
+        <v>833</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1555,51 +1609,25 @@
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>833</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="N6" s="2">
         <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="2">
-        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -1617,70 +1645,70 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1712,56 +1740,56 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -1770,30 +1798,30 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1811,137 +1839,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,9 +21,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>桃園縣大園鄉大牛稠段倒厝子小段06530000地號</t>
+  </si>
+  <si>
+    <t>桃園縣大園鄉大牛稠段倒厝子小段06500001地號</t>
+  </si>
+  <si>
+    <t>桃圜縣蘆竹鄉南崁廟口段營盤坑小段00370170地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>1083分之198</t>
+  </si>
+  <si>
+    <t>陳根德</t>
+  </si>
+  <si>
+    <t>70年01月29日</t>
+  </si>
+  <si>
+    <t>92年06月13曰</t>
+  </si>
+  <si>
+    <t>100年06月15曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpa3b61</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,52 +131,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>桃園縣大園鄉大牛稠段倒厝子 小段0653-0000地號</t>
-  </si>
-  <si>
-    <t>桃園縣大園鄉大牛稠段倒厝子 小段0650-0001地號</t>
-  </si>
-  <si>
-    <t>桃圜縣蘆竹鄉南崁廟口段營盤 坑小段0037-0170地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>1083分之 198</t>
-  </si>
-  <si>
-    <t>陳根德</t>
-  </si>
-  <si>
-    <t>70年01月 29日</t>
-  </si>
-  <si>
-    <t>92年06月 13曰</t>
-  </si>
-  <si>
-    <t>100 年 06 月15曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>桃園縣大園鄉大牛稠段倒厝子 小段00237-000建號</t>
-  </si>
-  <si>
-    <t>10000分之 4509</t>
-  </si>
-  <si>
-    <t>92年11月 25日</t>
-  </si>
-  <si>
-    <t>(自地自 建）</t>
+    <t>桃園縣大園鄉大牛稠段倒厝子小段00237000建號</t>
+  </si>
+  <si>
+    <t>10000分之4509</t>
+  </si>
+  <si>
+    <t>92年11月25日</t>
+  </si>
+  <si>
+    <t>(自地自建）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -101,7 +152,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>BMW ACTIVEHYBRID 7L</t>
+    <t>BMWACTIVEHYBRID7L</t>
   </si>
   <si>
     <t>奧迪A5</t>
@@ -110,10 +161,10 @@
     <t>蔡慧敏</t>
   </si>
   <si>
-    <t>99年06月 30日</t>
-  </si>
-  <si>
-    <t>99年11月 19曰</t>
+    <t>99年06月30日</t>
+  </si>
+  <si>
+    <t>99年11月19曰</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -134,22 +185,19 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台新國際商業銀行建北分 行</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行桃圜 分行</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行桃園 分行</t>
+    <t>台新國際商業銀行建北分行</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行桃圜分行</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行桃園分行</t>
   </si>
   <si>
     <t>第一商業銀行北桃分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行桃園分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行桃園分 行 ，</t>
+    <t>合作金庫商業銀行桃園分行</t>
   </si>
   <si>
     <t>曰盛商業銀行北桃圜分行</t>
@@ -161,7 +209,7 @@
     <t>聯邦商業銀行桃園分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司桃 園府前</t>
+    <t>中華郵政股份有限公司桃園府前</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -182,18 +230,9 @@
     <t>美金</t>
   </si>
   <si>
-    <t>新臺幣•</t>
-  </si>
-  <si>
     <t>新臺幣*</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -206,27 +245,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>長鴻營造(股)(上櫃）</t>
   </si>
   <si>
@@ -245,15 +263,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmpa3b61</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -272,25 +281,25 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及羊</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字晝及羊</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>統帥球場高爾夫球証</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣500, 000元）</t>
+    <t>1額：新臺幣500000元）</t>
   </si>
   <si>
     <t>價</t>
@@ -302,7 +311,7 @@
     <t>債務人</t>
   </si>
   <si>
-    <t>債權人，及地址</t>
+    <t>債權人及地址</t>
   </si>
   <si>
     <t>餘額</t>
@@ -323,19 +332,19 @@
     <t>陳哼德</t>
   </si>
   <si>
-    <t>第一銀行北桃分行 桃園縣桃圜市三民路</t>
-  </si>
-  <si>
-    <t>聯邦桃圜分行 桃圜縣桃園市中山路</t>
-  </si>
-  <si>
-    <t>合庫桃園分行 桃圜縣桃園市中正路</t>
-  </si>
-  <si>
-    <t>98年06月 01日</t>
-  </si>
-  <si>
-    <t>93年01月 12日</t>
+    <t>第一銀行北桃分行桃園縣桃圜市三民路</t>
+  </si>
+  <si>
+    <t>聯邦桃圜分行桃圜縣桃園市中山路</t>
+  </si>
+  <si>
+    <t>合庫桃園分行桃圜縣桃園市中正路</t>
+  </si>
+  <si>
+    <t>98年06月01日</t>
+  </si>
+  <si>
+    <t>93年01月12日</t>
   </si>
   <si>
     <t>借人現金</t>
@@ -365,7 +374,7 @@
     <t>育嘉建設(有）</t>
   </si>
   <si>
-    <t>桃園縣龜山鄉舊路村9鄰振 興路998號</t>
+    <t>桃園縣龜山鄉舊路村9鄰振興路998號</t>
   </si>
   <si>
     <t>桃園縣桃園市四維街5號</t>
@@ -380,22 +389,22 @@
     <t>桃圜縣桃園市四维街5號</t>
   </si>
   <si>
-    <t>94年03月 16日</t>
-  </si>
-  <si>
-    <t>91年08月 05日</t>
-  </si>
-  <si>
-    <t>92年04月 15曰</t>
-  </si>
-  <si>
-    <t>95年12月 20日</t>
+    <t>94年03月16日</t>
+  </si>
+  <si>
+    <t>91年08月05日</t>
+  </si>
+  <si>
+    <t>92年04月15曰</t>
+  </si>
+  <si>
+    <t>95年12月20日</t>
   </si>
   <si>
     <t>投資</t>
   </si>
   <si>
-    <t>投資 *</t>
+    <t>投資*</t>
   </si>
 </sst>
 </file>
@@ -754,13 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,83 +791,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1539</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>833</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1083</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>833</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4749</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>16519513</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
+        <v>833</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -876,25 +969,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -902,25 +995,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1171.32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -938,22 +1031,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -961,19 +1054,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>4395</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>5500000</v>
@@ -984,19 +1077,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>2200000</v>
@@ -1017,22 +1110,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1040,16 +1133,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1061,16 +1154,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
         <v>10.58</v>
@@ -1084,16 +1177,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1105,16 +1198,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>11.73</v>
@@ -1128,16 +1221,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1149,16 +1242,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1170,16 +1263,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1191,16 +1284,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1212,16 +1305,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1233,16 +1326,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2">
         <v>1.64</v>
@@ -1256,16 +1349,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1277,16 +1370,16 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1298,16 +1391,16 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1319,16 +1412,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1340,16 +1433,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1371,43 +1464,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1415,10 +1508,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>1160000</v>
@@ -1427,28 +1520,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>833</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
         <v>67</v>
@@ -1459,10 +1552,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>2707676</v>
@@ -1471,28 +1564,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>833</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2">
         <v>68</v>
@@ -1503,10 +1596,10 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>2212745</v>
@@ -1515,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>833</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
         <v>69</v>
@@ -1547,10 +1640,10 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>592000</v>
@@ -1559,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>833</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
         <v>70</v>
@@ -1591,10 +1684,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>30</v>
@@ -1603,28 +1696,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>833</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2">
         <v>71</v>
@@ -1645,22 +1738,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1668,14 +1761,14 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1685,22 +1778,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1708,14 +1801,14 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
         <v>500000</v>
@@ -1737,22 +1830,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1760,22 +1853,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1783,13 +1876,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -1798,7 +1891,7 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1806,22 +1899,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1839,22 +1932,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1862,22 +1955,22 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1885,22 +1978,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1908,22 +2001,22 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1931,22 +2024,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1954,22 +2047,22 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -71,21 +71,27 @@
     <t>total</t>
   </si>
   <si>
+    <t>桃園縣大園鄉大牛稠段倒厝子小段06530000地號</t>
+  </si>
+  <si>
     <t>桃園縣大園鄉大牛稠段倒厝子小段06500001地號</t>
   </si>
   <si>
     <t>桃圜縣蘆竹鄉南崁廟口段營盤坑小段00370170地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>1083分之198</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>陳根德</t>
   </si>
   <si>
+    <t>70年01月29日</t>
+  </si>
+  <si>
     <t>92年06月13曰</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>長鴻營造(股)(上櫃）</t>
   </si>
   <si>
     <t>景岳生物科技(股)(上市）</t>
@@ -670,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -728,107 +737,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1083</v>
+        <v>1539</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>833</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.182825484764543</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>198</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4749</v>
+        <v>1083</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2">
-        <v>16519513</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
         <v>833</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.182825484764543</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4749</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16519513</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2">
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>833</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>4749</v>
       </c>
     </row>
@@ -839,33 +901,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1171.32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1">
-        <v>1171.32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>833</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.4509</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>528.148188</v>
       </c>
     </row>
   </sheetData>
@@ -874,623 +1016,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4395</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2200000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>12314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10.58</v>
-      </c>
-      <c r="G2" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>10698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11.73</v>
-      </c>
-      <c r="G4" s="2">
-        <v>354246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>28677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>12324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>391165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>63238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="G10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>57</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>10650455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>74170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2707676</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2">
-        <v>27076760</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2">
-        <v>833</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2212745</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2">
-        <v>22127450</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2">
-        <v>833</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>592000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5920000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2">
-        <v>833</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>71</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2">
-        <v>300</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2">
-        <v>833</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="2">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1500,58 +1025,780 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4395</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4395</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>12314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>12314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.58</v>
+      </c>
+      <c r="G3" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>10698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.73</v>
+      </c>
+      <c r="G5" s="2">
+        <v>354246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>28677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>12324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>391165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>63238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>10650455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>74170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1160000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2">
+        <v>11600000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2707676</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27076760</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2212745</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2">
+        <v>22127450</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>833</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>592000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5920000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
+        <v>833</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2">
+        <v>300</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
+        <v>833</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>87</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>500000</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1569,68 +1816,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100.5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>104</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2">
         <v>22773300</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>77</v>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1910,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,114 +1918,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E2" s="2">
-        <v>45000000</v>
+        <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
-        <v>41700000</v>
+        <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
-        <v>500000</v>
+        <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>114</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -128,16 +128,19 @@
     <t>(自地自建）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>BMWACTIVEHYBRID7L</t>
   </si>
   <si>
+    <t>奧迪A5</t>
+  </si>
+  <si>
+    <t>蔡慧敏</t>
+  </si>
+  <si>
     <t>99年06月30日</t>
-  </si>
-  <si>
-    <t>奧迪A5</t>
-  </si>
-  <si>
-    <t>蔡慧敏</t>
   </si>
   <si>
     <t>99年11月19曰</t>
@@ -1017,38 +1020,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>4395</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>4395</v>
@@ -1057,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1065,8 +1089,29 @@
       <c r="G2" s="2">
         <v>5500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -1080,13 +1125,34 @@
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>2200000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1104,13 +1170,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>38</v>
@@ -1125,13 +1191,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
@@ -1146,13 +1212,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
@@ -1169,13 +1235,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
@@ -1190,13 +1256,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>38</v>
@@ -1213,13 +1279,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1234,13 +1300,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
@@ -1255,13 +1321,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>38</v>
@@ -1276,13 +1342,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1297,13 +1363,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>38</v>
@@ -1318,13 +1384,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>38</v>
@@ -1341,13 +1407,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
@@ -1362,13 +1428,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1383,13 +1449,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
@@ -1404,13 +1470,13 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
@@ -1425,13 +1491,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
@@ -1462,13 +1528,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1500,7 +1566,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -1512,13 +1578,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1544,7 +1610,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -1556,13 +1622,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1588,7 +1654,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1600,13 +1666,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1632,7 +1698,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1644,13 +1710,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1676,7 +1742,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1688,13 +1754,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1730,14 +1796,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1747,16 +1813,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1764,22 +1830,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1787,7 +1853,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1816,22 +1882,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1839,22 +1905,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1862,13 +1928,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -1877,7 +1943,7 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1885,22 +1951,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1921,19 +1987,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1944,19 +2010,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1967,19 +2033,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1990,19 +2056,19 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2013,19 +2079,19 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2036,19 +2102,19 @@
         <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,9 @@
     <t>(自地自建）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>貝賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台新國際商業銀行建北分行</t>
@@ -986,7 +992,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1072,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>4395</v>
@@ -1081,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1090,7 +1096,7 @@
         <v>5500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1116,25 +1122,25 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>2200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1170,16 +1176,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1191,16 +1197,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1212,16 +1218,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2">
         <v>10.58</v>
@@ -1235,16 +1241,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1256,16 +1262,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2">
         <v>11.73</v>
@@ -1279,13 +1285,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1300,16 +1306,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1321,16 +1327,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1342,13 +1348,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1363,16 +1369,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1384,16 +1390,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2">
         <v>1.64</v>
@@ -1407,16 +1413,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1428,13 +1434,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1449,16 +1455,16 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1470,16 +1476,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1491,16 +1497,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1528,13 +1534,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1566,10 +1572,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>1160000</v>
@@ -1578,13 +1584,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1610,10 +1616,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>2707676</v>
@@ -1622,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1654,7 +1660,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1666,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1698,7 +1704,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1710,13 +1716,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1742,7 +1748,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1754,13 +1760,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1796,14 +1802,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1813,16 +1819,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1830,22 +1836,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1853,7 +1859,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1864,7 +1870,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1882,22 +1888,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1905,22 +1911,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1928,13 +1934,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -1943,7 +1949,7 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1951,22 +1957,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1987,19 +1993,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2010,19 +2016,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2033,19 +2039,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2053,22 +2059,22 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2076,22 +2082,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2099,22 +2105,22 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -155,61 +155,70 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台新國際商業銀行建北分行</t>
   </si>
   <si>
+    <t>花旗(台灣)商業銀行桃圜分行</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行北桃分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>曰盛商業銀行北桃圜分行</t>
+  </si>
+  <si>
+    <t>日盛商業銀行北桃園分行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃園府前</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄織</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>花旗(台灣)商業銀行桃圜分行</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行桃園分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行北桃分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行桃園分行</t>
-  </si>
-  <si>
-    <t>曰盛商業銀行北桃圜分行</t>
-  </si>
-  <si>
-    <t>日盛商業銀行北桃園分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行桃園分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃園府前</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄織</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>新臺幣*</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>長鴻營造(股)(上櫃）</t>
@@ -1168,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1185,332 +1194,646 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>12314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>12314</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>833</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="2">
-        <v>10.58</v>
-      </c>
-      <c r="G3" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>833</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>10698</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>833</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2">
-        <v>11.73</v>
-      </c>
-      <c r="G5" s="2">
         <v>354246</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>833</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>28677</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>833</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>12324</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>833</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>391165</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>833</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>63238</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>833</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1264</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>833</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="G11" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>833</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>904</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>833</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1797</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2">
+        <v>833</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>10650455</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <v>833</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>3041</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>833</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>74170</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2">
+        <v>833</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1534,13 +1857,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1572,7 +1895,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1584,13 +1907,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>11600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1616,7 +1939,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1628,13 +1951,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>27076760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1660,7 +1983,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1672,13 +1995,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
         <v>22127450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1704,7 +2027,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1716,13 +2039,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>5920000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1748,7 +2071,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1760,13 +2083,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>300</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1802,14 +2125,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1819,16 +2142,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1836,22 +2159,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1859,7 +2182,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1888,22 +2211,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1911,22 +2234,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1934,13 +2257,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -1949,7 +2272,7 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1957,22 +2280,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1993,19 +2316,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2016,19 +2339,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2039,19 +2362,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2062,19 +2385,19 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2085,19 +2408,19 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2108,19 +2431,19 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -12,7 +12,7 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
+    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
     <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -239,34 +239,10 @@
     <t>stock</t>
   </si>
   <si>
-    <t>(九）珠寶古董字晝及羊</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>1額：新臺幣500000元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
     <t>統帥球場高爾夫球証</t>
   </si>
   <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>股票質押借款</t>
@@ -2117,83 +2093,83 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>833</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
         <v>87</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2211,22 +2187,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1">
         <v>50000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2234,22 +2210,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2257,13 +2233,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
@@ -2272,7 +2248,7 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2280,22 +2256,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2316,19 +2292,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2339,19 +2315,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2362,19 +2338,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2385,19 +2361,19 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2408,19 +2384,19 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2431,19 +2407,19 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
+++ b/legislator/property/output/normal/陳根德_2011-11-22_財產申報表_tmpa3b61.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -242,79 +242,97 @@
     <t>統帥球場高爾夫球証</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>股票質押借款</t>
   </si>
   <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>陳哼德</t>
+  </si>
+  <si>
     <t>第一銀行北桃分行桃園縣桃圜市三民路</t>
   </si>
   <si>
+    <t>聯邦桃圜分行桃圜縣桃園市中山路</t>
+  </si>
+  <si>
+    <t>合庫桃園分行桃圜縣桃園市中正路</t>
+  </si>
+  <si>
     <t>98年06月01日</t>
   </si>
   <si>
+    <t>93年01月12日</t>
+  </si>
+  <si>
     <t>借人現金</t>
   </si>
   <si>
-    <t>房屋貸款</t>
-  </si>
-  <si>
-    <t>陳哼德</t>
-  </si>
-  <si>
-    <t>聯邦桃圜分行桃圜縣桃園市中山路</t>
-  </si>
-  <si>
-    <t>合庫桃園分行桃圜縣桃園市中正路</t>
-  </si>
-  <si>
-    <t>93年01月12日</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>坤和雷射品切割(股）</t>
   </si>
   <si>
+    <t>建道營造(股）</t>
+  </si>
+  <si>
+    <t>天天美企業(有）</t>
+  </si>
+  <si>
+    <t>育嘉建設(有）</t>
+  </si>
+  <si>
     <t>桃園縣龜山鄉舊路村9鄰振興路998號</t>
   </si>
   <si>
+    <t>桃園縣桃園市四維街5號</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市四维街5號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市四維街5號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市四维街5號</t>
+  </si>
+  <si>
     <t>94年03月16日</t>
   </si>
   <si>
+    <t>91年08月05日</t>
+  </si>
+  <si>
+    <t>92年04月15曰</t>
+  </si>
+  <si>
+    <t>95年12月20日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>建道營造(股）</t>
-  </si>
-  <si>
-    <t>天天美企業(有）</t>
-  </si>
-  <si>
-    <t>育嘉建設(有）</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市四維街5號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市四维街5號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市四維街5號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市四维街5號</t>
-  </si>
-  <si>
-    <t>91年08月05日</t>
-  </si>
-  <si>
-    <t>92年04月15曰</t>
-  </si>
-  <si>
-    <t>95年12月20日</t>
-  </si>
-  <si>
     <t>投資*</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2179,61 +2197,103 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1">
-        <v>50000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>50000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2248,18 +2308,39 @@
         <v>100.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>81</v>
@@ -2268,10 +2349,31 @@
         <v>22773300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>833</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2281,33 +2383,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>109</v>
       </c>
@@ -2315,22 +2438,43 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>833</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>110</v>
       </c>
@@ -2338,22 +2482,43 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>45000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>833</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>111</v>
       </c>
@@ -2361,22 +2526,43 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>41700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>833</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>113</v>
       </c>
@@ -2384,22 +2570,43 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
+        <v>833</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>114</v>
       </c>
@@ -2407,19 +2614,40 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
+        <v>833</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
